--- a/test_ホワイトボード/已完成/test_ホワイトボード→チラシ配布資料.xlsx
+++ b/test_ホワイトボード/已完成/test_ホワイトボード→チラシ配布資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4413" uniqueCount="901">
   <si>
     <t>URL:</t>
   </si>
@@ -4243,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM218"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4661,9 +4661,7 @@
       <c r="B56" s="49"/>
     </row>
     <row r="57" spans="1:75" s="48" customFormat="1" ht="14.25">
-      <c r="A57" s="55" t="s">
-        <v>159</v>
-      </c>
+      <c r="A57" s="55"/>
       <c r="B57" s="54" t="s">
         <v>506</v>
       </c>
@@ -16596,7 +16594,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
